--- a/data/geum/수질/대청댐6_2020.xlsx
+++ b/data/geum/수질/대청댐6_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\geum\수질\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="104">
   <si>
     <t>dt</t>
   </si>
@@ -324,33 +331,38 @@
   </si>
   <si>
     <t>2020-09-16 12:00</t>
-  </si>
-  <si>
-    <t>2020-09-24 12:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -368,7 +380,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -376,17 +394,25 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -395,10 +421,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -644,83 +670,83 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.89" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.78" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.22" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.44" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.78" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.78" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.25" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -937,16 +963,16 @@
         <v>68</v>
       </c>
       <c r="AC2" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AD2" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE2" s="5">
         <v>7.5</v>
       </c>
       <c r="AF2" s="5">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AG2">
         <v>165</v>
@@ -955,13 +981,13 @@
         <v>1</v>
       </c>
       <c r="AI2" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ2" s="5">
         <v>10.9</v>
       </c>
       <c r="AK2" s="4">
-        <v>1.6699999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="AL2" s="4">
         <v>0.01</v>
@@ -973,19 +999,19 @@
         <v>2</v>
       </c>
       <c r="AP2" s="6">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AQ2" s="6">
         <v>1.4379999999999999</v>
       </c>
       <c r="AR2" s="6">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS2" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1014,7 +1040,7 @@
         <v>68</v>
       </c>
       <c r="AC3" s="6">
-        <v>0.044999999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AD3" s="5">
         <v>1.2</v>
@@ -1023,7 +1049,7 @@
         <v>7.5</v>
       </c>
       <c r="AF3" s="5">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AG3">
         <v>166</v>
@@ -1035,13 +1061,13 @@
         <v>1.2</v>
       </c>
       <c r="AJ3" s="5">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="AK3" s="4">
         <v>1.75</v>
       </c>
       <c r="AL3" s="6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AN3">
         <v>6</v>
@@ -1050,19 +1076,19 @@
         <v>2</v>
       </c>
       <c r="AP3" s="6">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ3" s="6">
         <v>1.488</v>
       </c>
       <c r="AR3" s="6">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS3" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1091,16 +1117,16 @@
         <v>68</v>
       </c>
       <c r="AC4" s="6">
-        <v>0.036999999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AD4">
         <v>1</v>
       </c>
       <c r="AE4" s="5">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF4" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG4">
         <v>185</v>
@@ -1109,37 +1135,37 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI4" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ4" s="5">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="AK4" s="6">
         <v>1.7789999999999999</v>
       </c>
       <c r="AL4" s="6">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AN4" s="5">
         <v>4.5</v>
       </c>
       <c r="AO4" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AP4" s="6">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ4" s="6">
         <v>1.474</v>
       </c>
       <c r="AR4" s="6">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS4" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1168,7 +1194,7 @@
         <v>74</v>
       </c>
       <c r="AC5" s="6">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -1177,7 +1203,7 @@
         <v>7.5</v>
       </c>
       <c r="AF5" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AG5">
         <v>168</v>
@@ -1189,34 +1215,34 @@
         <v>2</v>
       </c>
       <c r="AJ5" s="5">
-        <v>12.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AK5" s="6">
         <v>1.653</v>
       </c>
       <c r="AL5" s="6">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AN5" s="5">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="AO5" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AP5" s="6">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ5" s="4">
-        <v>1.3799999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AR5" s="6">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS5" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1245,16 +1271,16 @@
         <v>74</v>
       </c>
       <c r="AC6" s="6">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AD6">
         <v>1</v>
       </c>
       <c r="AE6" s="5">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF6" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG6">
         <v>170</v>
@@ -1263,37 +1289,37 @@
         <v>1.3</v>
       </c>
       <c r="AI6" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ6" s="5">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AK6" s="6">
         <v>1.681</v>
       </c>
       <c r="AL6" s="6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AN6" s="5">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" s="5">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AP6" s="6">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AQ6" s="6">
         <v>1.359</v>
       </c>
       <c r="AR6" s="6">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AS6" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1322,55 +1348,55 @@
         <v>74</v>
       </c>
       <c r="AC7" s="6">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AD7" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AE7" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF7" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG7">
         <v>182</v>
       </c>
       <c r="AH7" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI7" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ7" s="5">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AK7" s="6">
         <v>2.3559999999999999</v>
       </c>
       <c r="AL7" s="6">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AN7" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AO7" s="5">
         <v>1.3</v>
       </c>
       <c r="AP7" s="6">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AQ7" s="6">
         <v>1.7529999999999999</v>
       </c>
       <c r="AR7" s="6">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AS7" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1399,13 +1425,13 @@
         <v>78</v>
       </c>
       <c r="AC8" s="6">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD8" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AE8" s="5">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF8" s="5">
         <v>2.2999999999999998</v>
@@ -1426,7 +1452,7 @@
         <v>2.073</v>
       </c>
       <c r="AL8" s="6">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AN8" s="5">
         <v>4.0999999999999996</v>
@@ -1435,19 +1461,19 @@
         <v>1.5</v>
       </c>
       <c r="AP8" s="6">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ8" s="6">
         <v>1.7090000000000001</v>
       </c>
       <c r="AR8" s="6">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS8" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1476,7 +1502,7 @@
         <v>78</v>
       </c>
       <c r="AC9" s="6">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD9" s="5">
         <v>1.3</v>
@@ -1494,7 +1520,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI9" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ9">
         <v>13</v>
@@ -1503,16 +1529,16 @@
         <v>2.3220000000000001</v>
       </c>
       <c r="AL9" s="6">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AN9" s="5">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AO9" s="5">
         <v>1.7</v>
       </c>
       <c r="AP9" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ9" s="6">
         <v>2.0550000000000002</v>
@@ -1521,10 +1547,10 @@
         <v>0.01</v>
       </c>
       <c r="AS9" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1553,7 +1579,7 @@
         <v>78</v>
       </c>
       <c r="AC10" s="6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AD10" s="5">
         <v>1.2</v>
@@ -1568,10 +1594,10 @@
         <v>190</v>
       </c>
       <c r="AH10" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI10" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ10" s="5">
         <v>12.4</v>
@@ -1580,28 +1606,28 @@
         <v>2.3239999999999998</v>
       </c>
       <c r="AL10" s="6">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN10" s="5">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AO10" s="5">
         <v>1.2</v>
       </c>
       <c r="AP10" s="6">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ10" s="6">
         <v>2.0510000000000002</v>
       </c>
       <c r="AR10" s="6">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AS10" s="5">
         <v>1.8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1630,13 +1656,13 @@
         <v>82</v>
       </c>
       <c r="AC11" s="6">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD11" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="AE11" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF11">
         <v>2</v>
@@ -1648,37 +1674,37 @@
         <v>1</v>
       </c>
       <c r="AI11" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ11" s="5">
-        <v>11.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="AK11" s="4">
-        <v>2.6099999999999999</v>
+        <v>2.61</v>
       </c>
       <c r="AL11" s="6">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AN11" s="5">
-        <v>8.9000000000000004</v>
+        <v>8.9</v>
       </c>
       <c r="AO11">
         <v>2</v>
       </c>
       <c r="AP11" s="6">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ11" s="6">
         <v>2.0569999999999999</v>
       </c>
       <c r="AR11" s="6">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AS11">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1710,10 +1736,10 @@
         <v>0.01</v>
       </c>
       <c r="AD12" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE12" s="5">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF12" s="5">
         <v>1.8</v>
@@ -1722,40 +1748,40 @@
         <v>161</v>
       </c>
       <c r="AH12" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI12" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ12" s="5">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AK12" s="6">
         <v>2.8839999999999999</v>
       </c>
       <c r="AL12" s="6">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AN12">
         <v>5</v>
       </c>
       <c r="AO12" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AP12" s="6">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ12" s="6">
         <v>2.2469999999999999</v>
       </c>
       <c r="AR12" s="6">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AS12" s="5">
         <v>1.7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -1787,10 +1813,10 @@
         <v>0.01</v>
       </c>
       <c r="AD13" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE13" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF13" s="5">
         <v>1.7</v>
@@ -1799,7 +1825,7 @@
         <v>183</v>
       </c>
       <c r="AH13" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI13" s="5">
         <v>1.2</v>
@@ -1811,28 +1837,28 @@
         <v>2.5289999999999999</v>
       </c>
       <c r="AL13" s="6">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AN13" s="5">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AO13" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AP13" s="6">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ13" s="6">
         <v>2.4870000000000001</v>
       </c>
       <c r="AR13" s="6">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AS13">
         <v>2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1861,7 +1887,7 @@
         <v>86</v>
       </c>
       <c r="AC14" s="6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AD14" s="5">
         <v>1.3</v>
@@ -1870,13 +1896,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF14" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG14">
         <v>170</v>
       </c>
       <c r="AH14" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI14" s="5">
         <v>1.2</v>
@@ -1888,7 +1914,7 @@
         <v>2.4079999999999999</v>
       </c>
       <c r="AL14" s="6">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN14" s="5">
         <v>14.1</v>
@@ -1897,19 +1923,19 @@
         <v>2</v>
       </c>
       <c r="AP14" s="6">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ14" s="6">
         <v>1.9630000000000001</v>
       </c>
       <c r="AR14" s="6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AS14" s="5">
         <v>1.8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -1938,16 +1964,16 @@
         <v>86</v>
       </c>
       <c r="AC15" s="6">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AD15" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="AE15" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF15" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AG15">
         <v>176</v>
@@ -1959,34 +1985,34 @@
         <v>1.2</v>
       </c>
       <c r="AJ15" s="5">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AK15" s="6">
         <v>2.367</v>
       </c>
       <c r="AL15" s="6">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AN15" s="5">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AO15" s="5">
         <v>1.7</v>
       </c>
       <c r="AP15" s="6">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ15" s="6">
         <v>2.048</v>
       </c>
       <c r="AR15" s="6">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AS15" s="5">
         <v>1.7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -2021,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="AE16" s="5">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF16" s="5">
         <v>2.5</v>
@@ -2033,16 +2059,16 @@
         <v>1.3</v>
       </c>
       <c r="AI16" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ16" s="5">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AK16" s="4">
         <v>2.1800000000000002</v>
       </c>
       <c r="AL16" s="6">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AN16" s="5">
         <v>4.0999999999999996</v>
@@ -2051,19 +2077,19 @@
         <v>2</v>
       </c>
       <c r="AP16" s="6">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ16" s="6">
         <v>1.8779999999999999</v>
       </c>
       <c r="AR16" s="6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AS16" s="5">
         <v>1.7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2092,16 +2118,16 @@
         <v>90</v>
       </c>
       <c r="AC17" s="6">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AD17" s="5">
         <v>1.2</v>
       </c>
       <c r="AE17" s="5">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AF17" s="5">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AG17">
         <v>164</v>
@@ -2110,7 +2136,7 @@
         <v>1.2</v>
       </c>
       <c r="AI17" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ17" s="5">
         <v>9.1999999999999993</v>
@@ -2119,7 +2145,7 @@
         <v>1.6930000000000001</v>
       </c>
       <c r="AL17" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AN17">
         <v>19</v>
@@ -2128,19 +2154,19 @@
         <v>2</v>
       </c>
       <c r="AP17" s="6">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ17" s="6">
         <v>1.512</v>
       </c>
       <c r="AR17" s="6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AS17" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -2169,22 +2195,22 @@
         <v>90</v>
       </c>
       <c r="AC18" s="6">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD18" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AE18" s="5">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF18" s="5">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AG18">
         <v>175</v>
       </c>
       <c r="AH18" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI18" s="5">
         <v>1.2</v>
@@ -2196,28 +2222,28 @@
         <v>2.5680000000000001</v>
       </c>
       <c r="AL18" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AN18" s="5">
-        <v>9.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="AO18" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AP18" s="6">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ18" s="4">
-        <v>2.1699999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="AR18" s="6">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AS18">
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -2246,16 +2272,16 @@
         <v>90</v>
       </c>
       <c r="AC19" s="6">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD19" s="5">
         <v>1.2</v>
       </c>
       <c r="AE19" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF19" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG19">
         <v>187</v>
@@ -2267,34 +2293,34 @@
         <v>1.2</v>
       </c>
       <c r="AJ19" s="5">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AK19" s="6">
         <v>2.6480000000000001</v>
       </c>
       <c r="AL19" s="6">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AN19" s="5">
         <v>4.5</v>
       </c>
       <c r="AO19" s="5">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AP19" s="6">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AQ19" s="6">
         <v>2.2370000000000001</v>
       </c>
       <c r="AR19" s="6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AS19" s="5">
         <v>1.8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -2323,7 +2349,7 @@
         <v>94</v>
       </c>
       <c r="AC20" s="6">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -2344,34 +2370,34 @@
         <v>1.2</v>
       </c>
       <c r="AJ20" s="5">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AK20" s="6">
         <v>1.714</v>
       </c>
       <c r="AL20" s="6">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AN20" s="5">
-        <v>20.899999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="AO20">
         <v>2</v>
       </c>
       <c r="AP20" s="6">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ20" s="4">
-        <v>1.4299999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="AR20" s="6">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AS20" s="5">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2406,10 +2432,10 @@
         <v>1.5</v>
       </c>
       <c r="AE21" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF21" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG21">
         <v>139</v>
@@ -2418,7 +2444,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI21" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ21">
         <v>1</v>
@@ -2427,7 +2453,7 @@
         <v>2.7789999999999999</v>
       </c>
       <c r="AL21" s="6">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AN21" s="5">
         <v>16.899999999999999</v>
@@ -2436,19 +2462,19 @@
         <v>2</v>
       </c>
       <c r="AP21" s="6">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AQ21" s="5">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AR21" s="6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AS21" s="5">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2477,13 +2503,13 @@
         <v>94</v>
       </c>
       <c r="AC22" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AD22" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="AE22" s="5">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF22" s="5">
         <v>2.5</v>
@@ -2495,7 +2521,7 @@
         <v>1.2</v>
       </c>
       <c r="AI22" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ22" s="5">
         <v>1.5</v>
@@ -2504,28 +2530,28 @@
         <v>2.1850000000000001</v>
       </c>
       <c r="AL22" s="6">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AN22" s="5">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="AO22" s="5">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AP22" s="6">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AQ22" s="6">
         <v>1.9359999999999999</v>
       </c>
       <c r="AR22" s="6">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AS22" s="5">
         <v>1.7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2554,7 +2580,7 @@
         <v>98</v>
       </c>
       <c r="AC23" s="6">
-        <v>0.037999999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -2569,10 +2595,10 @@
         <v>98</v>
       </c>
       <c r="AH23" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI23" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ23">
         <v>9</v>
@@ -2581,28 +2607,28 @@
         <v>1.895</v>
       </c>
       <c r="AL23" s="6">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN23" s="5">
         <v>22.5</v>
       </c>
       <c r="AO23" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AP23" s="6">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ23" s="6">
         <v>1.486</v>
       </c>
       <c r="AR23" s="6">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AS23" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2631,13 +2657,13 @@
         <v>98</v>
       </c>
       <c r="AC24" s="6">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AD24" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="AE24" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF24" s="5">
         <v>1.7</v>
@@ -2652,13 +2678,13 @@
         <v>1.2</v>
       </c>
       <c r="AJ24" s="5">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AK24" s="6">
         <v>2.0950000000000002</v>
       </c>
       <c r="AL24" s="6">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AN24" s="5">
         <v>16.600000000000001</v>
@@ -2667,19 +2693,19 @@
         <v>3</v>
       </c>
       <c r="AP24" s="6">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AQ24" s="6">
         <v>1.829</v>
       </c>
       <c r="AR24" s="6">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AS24" s="5">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -2708,16 +2734,16 @@
         <v>98</v>
       </c>
       <c r="AC25" s="6">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AD25" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AE25" s="5">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF25" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG25">
         <v>94</v>
@@ -2726,16 +2752,16 @@
         <v>1.3</v>
       </c>
       <c r="AI25" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ25" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AK25" s="6">
         <v>1.911</v>
       </c>
       <c r="AL25" s="6">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AN25" s="5">
         <v>14.9</v>
@@ -2744,19 +2770,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AP25" s="6">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ25" s="6">
         <v>1.5680000000000001</v>
       </c>
       <c r="AR25" s="6">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AS25" s="5">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -2791,10 +2817,10 @@
         <v>1</v>
       </c>
       <c r="AE26" s="5">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF26" s="5">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AG26">
         <v>159</v>
@@ -2803,37 +2829,37 @@
         <v>1.2</v>
       </c>
       <c r="AI26" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ26" s="5">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AK26" s="6">
         <v>1.9630000000000001</v>
       </c>
       <c r="AL26" s="6">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AN26" s="5">
-        <v>23.699999999999999</v>
+        <v>23.7</v>
       </c>
       <c r="AO26" s="5">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AP26" s="6">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AQ26" s="6">
         <v>1.716</v>
       </c>
       <c r="AR26" s="6">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AS26">
         <v>2</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2862,7 +2888,7 @@
         <v>102</v>
       </c>
       <c r="AC27" s="6">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AD27" s="5">
         <v>1.2</v>
@@ -2871,7 +2897,7 @@
         <v>7</v>
       </c>
       <c r="AF27" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG27">
         <v>99</v>
@@ -2883,111 +2909,35 @@
         <v>2</v>
       </c>
       <c r="AJ27" s="5">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="AK27" s="6">
         <v>2.2749999999999999</v>
       </c>
       <c r="AL27" s="6">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AN27" s="5">
         <v>16.5</v>
       </c>
       <c r="AO27" s="5">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AP27" s="6">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AQ27" s="5">
         <v>1.8</v>
       </c>
       <c r="AR27" s="6">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AS27">
         <v>2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2">
-        <v>36.388500000000001</v>
-      </c>
-      <c r="F28" s="3">
-        <v>127.556972</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC28" s="6">
-        <v>0.019</v>
-      </c>
-      <c r="AD28" s="5">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="AE28" s="5">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="AF28" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AG28">
-        <v>100</v>
-      </c>
-      <c r="AH28" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="AI28" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="AJ28" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="AK28" s="6">
-        <v>1.3109999999999999</v>
-      </c>
-      <c r="AL28" s="6">
-        <v>0.019</v>
-      </c>
-      <c r="AN28" s="5">
-        <v>14.9</v>
-      </c>
-      <c r="AO28" s="5">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="AP28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="AQ28" s="6">
-        <v>1.2110000000000001</v>
-      </c>
-      <c r="AR28" s="6">
-        <v>0.014999999999999999</v>
-      </c>
-      <c r="AS28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>